--- a/examples/sources/data/unsolved/to_schedule/2019-03-14.xlsx
+++ b/examples/sources/data/unsolved/to_schedule/2019-03-14.xlsx
@@ -5919,7 +5919,7 @@
         <v>1</v>
       </c>
       <c r="N117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O117" s="2">
         <v>43538</v>
@@ -5960,7 +5960,7 @@
         <v>1</v>
       </c>
       <c r="N118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O118" s="2">
         <v>43538</v>
@@ -7505,7 +7505,7 @@
         <v>0</v>
       </c>
       <c r="M154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N154">
         <v>1</v>
